--- a/elim/src/main/resources/excelTemplates/OrdererMonthlyReport.xlsx
+++ b/elim/src/main/resources/excelTemplates/OrdererMonthlyReport.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\elim\elim\src\main\resources\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526C7FA9-A42E-4F50-AF9E-CFE5304D287E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2E7748-E56D-4BDD-9867-99B680CD13D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A446F207-523A-4631-96D1-2B2FDCFD7A2A}"/>
+    <workbookView xWindow="3270" yWindow="3420" windowWidth="23895" windowHeight="11115" xr2:uid="{A446F207-523A-4631-96D1-2B2FDCFD7A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +53,7 @@
             <charset val="136"/>
             <scheme val="minor"/>
           </rPr>
-          <t>jx:area(lastCell="K2")</t>
+          <t>jx:area(lastCell="L2")</t>
         </r>
       </text>
     </comment>
@@ -66,7 +66,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:each(items="businessList" var="item" lastCell="K2")</t>
+          <t>jx:each(items="ordererList" var="item" lastCell="L2")</t>
         </r>
       </text>
     </comment>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,14 @@
   </si>
   <si>
     <t>現金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.carNo}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2251AF-9A8B-4EFB-A65A-271596C637B7}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -636,12 +644,13 @@
     <col min="1" max="1" width="17.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="9" width="15.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="10" width="15.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -652,31 +661,34 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -687,21 +699,24 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/elim/src/main/resources/excelTemplates/OrdererMonthlyReport.xlsx
+++ b/elim/src/main/resources/excelTemplates/OrdererMonthlyReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\elim\elim\src\main\resources\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2E7748-E56D-4BDD-9867-99B680CD13D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A846253-DB8D-4731-9B3E-D517AA459190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="3420" windowWidth="23895" windowHeight="11115" xr2:uid="{A446F207-523A-4631-96D1-2B2FDCFD7A2A}"/>
+    <workbookView xWindow="0" yWindow="4485" windowWidth="28380" windowHeight="11115" xr2:uid="{A446F207-523A-4631-96D1-2B2FDCFD7A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -42,22 +42,42 @@
     <author>Stone.Shih</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7D5C14F3-9C47-4662-AE89-28989BE40D55}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{039DFCEB-0F5E-4C88-B70C-C2AF6C8A5C49}">
       <text>
         <r>
           <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="新細明體"/>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>葉皓昀</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="136"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>jx:area(lastCell="L2")</t>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:area(lastCell="K8")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{9838F5D9-6217-4872-95BC-98A737336682}">
+    <comment ref="A8" authorId="1" shapeId="0" xr:uid="{9838F5D9-6217-4872-95BC-98A737336682}">
       <text>
         <r>
           <rPr>
@@ -66,7 +86,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:each(items="ordererList" var="item" lastCell="L2")</t>
+          <t>jx:each(items="ordererList" var="item" lastCell="K8")</t>
         </r>
       </text>
     </comment>
@@ -75,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>調車人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${item.fare}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${item.orderer}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>應收款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,6 +166,30 @@
   </si>
   <si>
     <t>${item.carNo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以琳通運有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結帳年月：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用車結帳單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用車單位：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${who}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sDate}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,6 +241,35 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -271,7 +336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -290,14 +355,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2251AF-9A8B-4EFB-A65A-271596C637B7}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -645,78 +719,99 @@
     <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="40.625" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="10" width="15.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" style="1" customWidth="1"/>
+    <col min="5" max="9" width="15.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
